--- a/biology/Histoire de la zoologie et de la botanique/Isaac_Sprague/Isaac_Sprague.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Isaac_Sprague/Isaac_Sprague.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isaac Sprague est un artiste autodidacte américain, spécialisé sur les paysages, la botanique et l’ornithologie, né le 5 septembre 1811 à Hingham (Massachusetts) et mort en 1895.
 Il est envoyé en apprentissage auprès de son oncle, spécialisé dans la décoration de calèche et de fiacre. Sprague rencontre John James Audubon (1785-1851) en 1840, lequel admire ses illustrations d’oiseaux. En 1843, il devient l’assistant d’Audubon au cours d’une expédition ornithologique qui remonte la rivière Missouri. Sprague réalise des mesures et fait des croquis. Son journal, qu’il tient durant l’expédition, est aujourd’hui conservé au Boston Athenæum. L’oiseau pipit de Sprague (Anthus spragueii) est découvert durant ce voyage et Audubon le lui dédie en 1844. Certaines des illustrations de Sprague ont été utilisées dans les dernières œuvres d’Audubon sans que son nom y apparaisse.
@@ -514,7 +526,9 @@
           <t>Liste partielle des œuvres illustrées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1842 Botanical Text-book d’Asa Gray
 1856 Manual of the Botany of the Northern United States d’Asa Gray, 2e édition
@@ -553,7 +567,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Emanuel D. Rudolph (1990), Isaac Sprague, 'Delineator and Naturalist', Journal of the History of Biology, 23 (1) : 91–126.</t>
         </is>
